--- a/data/groups.xlsx
+++ b/data/groups.xlsx
@@ -16,229 +16,229 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
   <si>
+    <t>group_id</t>
+  </si>
+  <si>
+    <t>team_id</t>
+  </si>
+  <si>
+    <t>group_name</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
     <t>G-1</t>
   </si>
   <si>
-    <t>team_id</t>
-  </si>
-  <si>
-    <t>group_name</t>
-  </si>
-  <si>
-    <t>place</t>
+    <t>T-1</t>
+  </si>
+  <si>
+    <t>Group A</t>
   </si>
   <si>
     <t>G-2</t>
   </si>
   <si>
-    <t>T-1</t>
-  </si>
-  <si>
-    <t>Group A</t>
+    <t>T-2</t>
   </si>
   <si>
     <t>G-3</t>
   </si>
   <si>
-    <t>T-2</t>
+    <t>T-3</t>
   </si>
   <si>
     <t>G-4</t>
   </si>
   <si>
-    <t>T-3</t>
+    <t>T-4</t>
   </si>
   <si>
     <t>G-5</t>
   </si>
   <si>
-    <t>T-4</t>
+    <t>T-5</t>
+  </si>
+  <si>
+    <t>Group B</t>
   </si>
   <si>
     <t>G-6</t>
   </si>
   <si>
-    <t>T-5</t>
-  </si>
-  <si>
-    <t>Group B</t>
+    <t>T-6</t>
   </si>
   <si>
     <t>G-7</t>
   </si>
   <si>
-    <t>T-6</t>
+    <t>T-7</t>
   </si>
   <si>
     <t>G-8</t>
   </si>
   <si>
-    <t>T-7</t>
+    <t>T-8</t>
   </si>
   <si>
     <t>G-9</t>
   </si>
   <si>
-    <t>T-8</t>
+    <t>T-9</t>
+  </si>
+  <si>
+    <t>Group C</t>
   </si>
   <si>
     <t>G-10</t>
   </si>
   <si>
-    <t>T-9</t>
-  </si>
-  <si>
-    <t>Group C</t>
+    <t>T-10</t>
   </si>
   <si>
     <t>G-11</t>
   </si>
   <si>
-    <t>T-10</t>
+    <t>T-11</t>
   </si>
   <si>
     <t>G-12</t>
   </si>
   <si>
-    <t>T-11</t>
+    <t>T-12</t>
   </si>
   <si>
     <t>G-13</t>
   </si>
   <si>
-    <t>T-12</t>
+    <t>T-13</t>
+  </si>
+  <si>
+    <t>Group D</t>
   </si>
   <si>
     <t>G-14</t>
   </si>
   <si>
-    <t>T-13</t>
-  </si>
-  <si>
-    <t>Group D</t>
+    <t>T-14</t>
   </si>
   <si>
     <t>G-15</t>
   </si>
   <si>
-    <t>T-14</t>
+    <t>T-15</t>
   </si>
   <si>
     <t>G-16</t>
   </si>
   <si>
-    <t>T-15</t>
+    <t>T-16</t>
   </si>
   <si>
     <t>G-17</t>
   </si>
   <si>
-    <t>T-16</t>
+    <t>T-17</t>
+  </si>
+  <si>
+    <t>Group E</t>
   </si>
   <si>
     <t>G-18</t>
   </si>
   <si>
-    <t>T-17</t>
-  </si>
-  <si>
-    <t>Group E</t>
+    <t>T-18</t>
   </si>
   <si>
     <t>G-19</t>
   </si>
   <si>
-    <t>T-18</t>
+    <t>T-19</t>
   </si>
   <si>
     <t>G-20</t>
   </si>
   <si>
-    <t>T-19</t>
+    <t>T-20</t>
   </si>
   <si>
     <t>G-21</t>
   </si>
   <si>
-    <t>T-20</t>
+    <t>T-21</t>
+  </si>
+  <si>
+    <t>Group F</t>
   </si>
   <si>
     <t>G-22</t>
   </si>
   <si>
-    <t>T-21</t>
-  </si>
-  <si>
-    <t>Group F</t>
+    <t>T-22</t>
   </si>
   <si>
     <t>G-23</t>
   </si>
   <si>
-    <t>T-22</t>
+    <t>T-23</t>
   </si>
   <si>
     <t>G-24</t>
   </si>
   <si>
-    <t>T-23</t>
+    <t>T-24</t>
   </si>
   <si>
     <t>G-25</t>
   </si>
   <si>
-    <t>T-24</t>
+    <t>T-25</t>
+  </si>
+  <si>
+    <t>Group G</t>
   </si>
   <si>
     <t>G-26</t>
   </si>
   <si>
-    <t>T-25</t>
-  </si>
-  <si>
-    <t>Group G</t>
+    <t>T-26</t>
   </si>
   <si>
     <t>G-27</t>
   </si>
   <si>
-    <t>T-26</t>
+    <t>T-27</t>
   </si>
   <si>
     <t>G-28</t>
   </si>
   <si>
-    <t>T-27</t>
+    <t>T-28</t>
   </si>
   <si>
     <t>G-29</t>
   </si>
   <si>
-    <t>T-28</t>
+    <t>T-29</t>
+  </si>
+  <si>
+    <t>Group H</t>
   </si>
   <si>
     <t>G-30</t>
   </si>
   <si>
-    <t>T-29</t>
-  </si>
-  <si>
-    <t>Group H</t>
+    <t>T-30</t>
   </si>
   <si>
     <t>G-31</t>
   </si>
   <si>
-    <t>T-30</t>
+    <t>T-31</t>
   </si>
   <si>
     <t>G-32</t>
-  </si>
-  <si>
-    <t>T-31</t>
-  </si>
-  <si>
-    <t>G-33</t>
   </si>
   <si>
     <t>T-32</t>
@@ -1183,7 +1183,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="14" outlineLevelCol="3"/>
